--- a/Daily Attandance record/Upto 15April/Feb_march/20_Feb.xlsx
+++ b/Daily Attandance record/Upto 15April/Feb_march/20_Feb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adil/Desktop/Saudi Icon/Daily Attandance record/Feb_march/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\Upto 15April\Feb_march\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E032ECAE-8517-914C-9235-F784EC5A3F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4567E69-EA3A-43D6-B8C8-E63BCE43D6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="180" windowWidth="17544" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hc-03" sheetId="1" r:id="rId1"/>
@@ -1895,21 +1895,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>14</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>15</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>26</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>27</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>28</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>29</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>30</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>31</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>32</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>33</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>34</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>35</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>36</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>37</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>38</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>39</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>40</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>41</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>46</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>47</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>48</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>49</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>50</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>51</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>52</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>53</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>54</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>55</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>56</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>57</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>58</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>59</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>60</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>61</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>62</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>63</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>64</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>65</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>66</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>67</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>68</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>69</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>70</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>71</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>72</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>73</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>74</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>75</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>76</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>77</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>78</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>79</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>80</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>81</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>82</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>83</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>84</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>85</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>86</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>87</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>88</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>89</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>90</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>91</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>92</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>93</v>
       </c>
@@ -3509,7 +3508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>94</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>95</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>96</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>97</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>98</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>99</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>100</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>101</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>102</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>103</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>104</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>105</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>106</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>107</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>108</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>109</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>110</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>111</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>112</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>113</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>114</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>115</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>116</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>117</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>118</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>119</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>120</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>121</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>122</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>123</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>124</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>125</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>126</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>127</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>128</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>129</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>130</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>131</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>132</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>133</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>134</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>135</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>136</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>137</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>138</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>139</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>140</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>141</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>142</v>
       </c>
@@ -4489,7 +4488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>143</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>144</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>145</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>146</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>147</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>148</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>149</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>150</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>151</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>152</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>153</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>154</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>155</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>156</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>157</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>158</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>159</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>160</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>161</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>162</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>163</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>164</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>165</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>166</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>167</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>168</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>169</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>170</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>171</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>172</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>173</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>174</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>175</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>176</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>177</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>178</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>179</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>180</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>181</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>182</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>183</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>184</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>185</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>186</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>188</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>189</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>190</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>191</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>192</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>193</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>194</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>195</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>196</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>197</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>198</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>199</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>200</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>201</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>202</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>203</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>204</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>205</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>206</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>207</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>208</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>209</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>210</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>211</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>212</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>213</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>214</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>215</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>216</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>217</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>218</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>219</v>
       </c>
@@ -6009,7 +6008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>220</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>221</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>222</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>223</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>224</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>225</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>226</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>227</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>228</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>229</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>230</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>231</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>232</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>233</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>234</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>235</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>236</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>237</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>238</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>239</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>240</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>241</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>242</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>243</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>244</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>245</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>246</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>247</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>248</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>249</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>250</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>251</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>252</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>253</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>254</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>255</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>256</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>257</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>258</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>260</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>261</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>262</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>263</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>264</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>265</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>266</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>267</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>268</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>269</v>
       </c>
@@ -6990,7 +6989,7 @@
       </c>
       <c r="G254" s="2"/>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>270</v>
       </c>
@@ -7011,7 +7010,7 @@
       </c>
       <c r="G255" s="2"/>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>271</v>
       </c>
@@ -7032,7 +7031,7 @@
       </c>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>272</v>
       </c>
@@ -7053,7 +7052,7 @@
       </c>
       <c r="G257" s="2"/>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>273</v>
       </c>
@@ -7074,7 +7073,7 @@
       </c>
       <c r="G258" s="2"/>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>274</v>
       </c>
@@ -7095,7 +7094,7 @@
       </c>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>275</v>
       </c>
@@ -7116,7 +7115,7 @@
       </c>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>276</v>
       </c>
@@ -7137,7 +7136,7 @@
       </c>
       <c r="G261" s="2"/>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>277</v>
       </c>
@@ -7158,7 +7157,7 @@
       </c>
       <c r="G262" s="2"/>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>278</v>
       </c>
@@ -7179,7 +7178,7 @@
       </c>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>279</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>280</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>281</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>282</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>283</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>284</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>285</v>
       </c>
@@ -7320,13 +7319,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F270" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:F270" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:F1 A2:F3 A13:F33 A9:F12 A4:F8 A245:F264 A174:F202 A266:F270 A265:E265 A240:F244 A239:D239 F239 A35:F161 A34:D34 F34 A163:F173 A162:D162 A204:F238 A203:D203" numberStoredAsText="1"/>
@@ -7342,13 +7335,13 @@
       <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7368,7 +7361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -7388,7 +7381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>7</v>
       </c>
@@ -7408,7 +7401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -7428,7 +7421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>13</v>
       </c>
@@ -7448,7 +7441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>14</v>
       </c>
@@ -7468,7 +7461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>15</v>
       </c>
@@ -7488,7 +7481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>17</v>
       </c>
@@ -7508,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>18</v>
       </c>
@@ -7528,7 +7521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>19</v>
       </c>
@@ -7548,7 +7541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -7568,7 +7561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>21</v>
       </c>
@@ -7588,7 +7581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>22</v>
       </c>
@@ -7608,7 +7601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>23</v>
       </c>
@@ -7628,7 +7621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>24</v>
       </c>
@@ -7648,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>25</v>
       </c>
@@ -7668,7 +7661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>26</v>
       </c>
@@ -7688,7 +7681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>27</v>
       </c>
@@ -7708,7 +7701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>28</v>
       </c>
@@ -7728,7 +7721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>29</v>
       </c>
@@ -7748,7 +7741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>30</v>
       </c>
@@ -7768,7 +7761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>31</v>
       </c>
@@ -7788,7 +7781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>32</v>
       </c>
@@ -7808,7 +7801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>33</v>
       </c>
@@ -7828,7 +7821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>34</v>
       </c>
@@ -7848,7 +7841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>35</v>
       </c>
@@ -7868,7 +7861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>36</v>
       </c>
@@ -7888,7 +7881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>37</v>
       </c>
@@ -7908,7 +7901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>38</v>
       </c>
@@ -7928,7 +7921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>39</v>
       </c>
@@ -7948,7 +7941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>40</v>
       </c>
@@ -7968,7 +7961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>41</v>
       </c>
@@ -7988,7 +7981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42</v>
       </c>
@@ -8008,7 +8001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43</v>
       </c>
@@ -8028,7 +8021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44</v>
       </c>
@@ -8048,7 +8041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45</v>
       </c>
@@ -8068,7 +8061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>46</v>
       </c>
@@ -8088,7 +8081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>47</v>
       </c>
@@ -8108,7 +8101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>48</v>
       </c>
@@ -8128,7 +8121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>49</v>
       </c>
@@ -8148,7 +8141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>50</v>
       </c>
@@ -8168,7 +8161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>51</v>
       </c>
@@ -8188,7 +8181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>52</v>
       </c>
@@ -8208,7 +8201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>53</v>
       </c>
@@ -8228,7 +8221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>54</v>
       </c>
@@ -8248,7 +8241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>55</v>
       </c>
@@ -8268,7 +8261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>56</v>
       </c>
@@ -8288,7 +8281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>57</v>
       </c>
@@ -8308,7 +8301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>58</v>
       </c>
@@ -8328,7 +8321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>59</v>
       </c>
@@ -8348,7 +8341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>60</v>
       </c>
@@ -8368,7 +8361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>61</v>
       </c>
@@ -8388,7 +8381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>62</v>
       </c>
@@ -8408,7 +8401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>63</v>
       </c>
@@ -8428,7 +8421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>64</v>
       </c>
@@ -8448,7 +8441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>65</v>
       </c>
@@ -8468,7 +8461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>66</v>
       </c>
@@ -8488,7 +8481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>67</v>
       </c>
@@ -8508,7 +8501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>68</v>
       </c>
@@ -8528,7 +8521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>69</v>
       </c>
@@ -8548,7 +8541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>70</v>
       </c>
@@ -8568,7 +8561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>71</v>
       </c>
@@ -8588,7 +8581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>72</v>
       </c>
@@ -8608,7 +8601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>73</v>
       </c>
@@ -8628,7 +8621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>74</v>
       </c>
@@ -8648,7 +8641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>75</v>
       </c>
@@ -8668,7 +8661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>76</v>
       </c>
@@ -8688,7 +8681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>77</v>
       </c>
@@ -8708,7 +8701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>78</v>
       </c>
@@ -8728,7 +8721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>79</v>
       </c>
@@ -8748,7 +8741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>80</v>
       </c>
@@ -8768,7 +8761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>81</v>
       </c>
@@ -8788,7 +8781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>82</v>
       </c>
@@ -8808,7 +8801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>83</v>
       </c>
@@ -8828,7 +8821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>84</v>
       </c>
@@ -8848,7 +8841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>85</v>
       </c>
@@ -8868,7 +8861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>86</v>
       </c>
@@ -8888,7 +8881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>87</v>
       </c>
@@ -8908,7 +8901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>88</v>
       </c>
@@ -8928,7 +8921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>89</v>
       </c>
@@ -8948,7 +8941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>90</v>
       </c>
@@ -8968,7 +8961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>91</v>
       </c>
@@ -8988,7 +8981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>92</v>
       </c>
@@ -9008,7 +9001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>93</v>
       </c>
@@ -9028,7 +9021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>94</v>
       </c>
@@ -9048,7 +9041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>95</v>
       </c>
@@ -9068,7 +9061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>96</v>
       </c>
@@ -9088,7 +9081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>97</v>
       </c>
@@ -9108,7 +9101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>98</v>
       </c>
@@ -9128,7 +9121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>99</v>
       </c>
@@ -9148,7 +9141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>100</v>
       </c>
@@ -9168,7 +9161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>101</v>
       </c>
@@ -9188,7 +9181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>102</v>
       </c>
@@ -9208,7 +9201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>103</v>
       </c>
@@ -9228,7 +9221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>104</v>
       </c>
@@ -9248,7 +9241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>105</v>
       </c>
@@ -9268,7 +9261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>106</v>
       </c>
@@ -9288,7 +9281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>107</v>
       </c>
@@ -9308,7 +9301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>108</v>
       </c>
@@ -9328,7 +9321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>109</v>
       </c>
@@ -9348,7 +9341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>110</v>
       </c>
@@ -9368,7 +9361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>111</v>
       </c>
@@ -9388,7 +9381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>112</v>
       </c>
@@ -9408,7 +9401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>113</v>
       </c>
@@ -9428,7 +9421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>114</v>
       </c>
@@ -9448,7 +9441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>115</v>
       </c>
@@ -9468,7 +9461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>116</v>
       </c>
@@ -9488,7 +9481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>117</v>
       </c>
@@ -9508,7 +9501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>118</v>
       </c>
@@ -9528,7 +9521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>119</v>
       </c>
@@ -9548,7 +9541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>120</v>
       </c>
@@ -9568,7 +9561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>121</v>
       </c>
@@ -9588,7 +9581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>122</v>
       </c>
@@ -9608,7 +9601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>123</v>
       </c>
@@ -9628,7 +9621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>124</v>
       </c>
@@ -9648,7 +9641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>125</v>
       </c>
@@ -9668,7 +9661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>126</v>
       </c>
@@ -9688,7 +9681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>127</v>
       </c>
@@ -9708,7 +9701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>128</v>
       </c>
@@ -9728,7 +9721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>129</v>
       </c>
@@ -9748,7 +9741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>130</v>
       </c>
@@ -9768,7 +9761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>131</v>
       </c>
@@ -9788,7 +9781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>132</v>
       </c>
@@ -9808,7 +9801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>133</v>
       </c>
@@ -9828,7 +9821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>134</v>
       </c>
@@ -9848,7 +9841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>135</v>
       </c>
@@ -9868,7 +9861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>136</v>
       </c>
@@ -9888,7 +9881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>137</v>
       </c>
@@ -9908,7 +9901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>138</v>
       </c>
@@ -9928,7 +9921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>139</v>
       </c>
@@ -9948,7 +9941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>140</v>
       </c>
@@ -9968,7 +9961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>141</v>
       </c>
@@ -9988,7 +9981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>142</v>
       </c>
@@ -10008,7 +10001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>143</v>
       </c>
@@ -10028,7 +10021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>144</v>
       </c>
@@ -10048,7 +10041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>145</v>
       </c>
@@ -10068,7 +10061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>146</v>
       </c>
@@ -10088,7 +10081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>147</v>
       </c>
@@ -10108,7 +10101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>148</v>
       </c>
@@ -10128,7 +10121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>149</v>
       </c>
@@ -10148,7 +10141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>150</v>
       </c>
@@ -10168,7 +10161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>151</v>
       </c>
@@ -10188,7 +10181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>152</v>
       </c>
@@ -10208,7 +10201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>153</v>
       </c>
@@ -10228,7 +10221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>154</v>
       </c>
@@ -10248,7 +10241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>155</v>
       </c>
@@ -10268,7 +10261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>156</v>
       </c>
@@ -10288,7 +10281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>157</v>
       </c>
@@ -10308,7 +10301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>158</v>
       </c>
@@ -10328,7 +10321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>159</v>
       </c>
@@ -10348,7 +10341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>160</v>
       </c>
@@ -10368,7 +10361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>161</v>
       </c>
@@ -10388,7 +10381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>162</v>
       </c>
@@ -10408,7 +10401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>163</v>
       </c>
@@ -10428,7 +10421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>164</v>
       </c>
@@ -10448,7 +10441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>165</v>
       </c>
@@ -10468,7 +10461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>166</v>
       </c>
@@ -10488,7 +10481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>167</v>
       </c>
@@ -10508,7 +10501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>168</v>
       </c>
@@ -10528,7 +10521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>169</v>
       </c>
@@ -10548,7 +10541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>170</v>
       </c>
@@ -10568,7 +10561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>171</v>
       </c>
@@ -10588,7 +10581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>172</v>
       </c>
@@ -10608,7 +10601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>173</v>
       </c>
@@ -10628,7 +10621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>174</v>
       </c>
@@ -10648,7 +10641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>175</v>
       </c>
@@ -10668,7 +10661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>176</v>
       </c>
@@ -10688,7 +10681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>177</v>
       </c>
@@ -10708,7 +10701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>178</v>
       </c>
@@ -10728,7 +10721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>179</v>
       </c>
@@ -10748,7 +10741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>180</v>
       </c>
@@ -10768,7 +10761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>181</v>
       </c>
@@ -10788,7 +10781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>182</v>
       </c>
@@ -10808,7 +10801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>183</v>
       </c>
@@ -10828,7 +10821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>184</v>
       </c>
@@ -10848,7 +10841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>185</v>
       </c>
@@ -10868,7 +10861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>186</v>
       </c>
@@ -10888,7 +10881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>187</v>
       </c>
@@ -10908,7 +10901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>188</v>
       </c>
@@ -10928,7 +10921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>189</v>
       </c>
@@ -10948,7 +10941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>190</v>
       </c>
@@ -10968,7 +10961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>191</v>
       </c>
@@ -10988,7 +10981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>192</v>
       </c>
@@ -11008,7 +11001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>193</v>
       </c>
@@ -11028,7 +11021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>194</v>
       </c>
@@ -11048,7 +11041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>195</v>
       </c>
@@ -11068,7 +11061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>196</v>
       </c>
@@ -11088,7 +11081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>197</v>
       </c>
@@ -11108,7 +11101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>198</v>
       </c>
@@ -11128,7 +11121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>199</v>
       </c>
@@ -11148,7 +11141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>200</v>
       </c>
@@ -11168,7 +11161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>201</v>
       </c>
@@ -11188,7 +11181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>202</v>
       </c>
@@ -11208,7 +11201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>203</v>
       </c>
@@ -11228,7 +11221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>204</v>
       </c>
@@ -11248,7 +11241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>205</v>
       </c>
@@ -11268,7 +11261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>206</v>
       </c>
@@ -11288,7 +11281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>207</v>
       </c>
@@ -11308,7 +11301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>208</v>
       </c>
@@ -11328,7 +11321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>209</v>
       </c>
@@ -11348,7 +11341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>210</v>
       </c>
